--- a/excel/участники выставки ШИНЫ, РТИ И КАУЧУКИ-2025.xlsx
+++ b/excel/участники выставки ШИНЫ, РТИ И КАУЧУКИ-2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,11 +433,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="62.4" customWidth="1" min="1" max="1"/>
-    <col width="43.2" customWidth="1" min="2" max="2"/>
-    <col width="22.8" customWidth="1" min="3" max="3"/>
-    <col width="37.2" customWidth="1" min="4" max="4"/>
-    <col width="331.2" customWidth="1" min="5" max="5"/>
+    <col width="85.2" customWidth="1" min="1" max="1"/>
+    <col width="50.4" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="3" max="3"/>
+    <col width="42" customWidth="1" min="4" max="4"/>
+    <col width="410.4" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1230,6 +1230,6189 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>GUILIN ZHONGHAO MECH AND ELEC EQUIPMENT CO. LTD</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>http://www.glzhlcrm.com.cn</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>+86 07732662732</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>sinolichuang@163.com</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Шиномонтажное оборудование; Оборудование для переработки резины; Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>HANGZHOU FUYANG FUCHUN TYRE LTD</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>http://www.hzfuchuntyre.com</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>+86 15267196888</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>cj@fuchuntyre.com</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>HANGZHOU FUYANG HENGSHAN COMPOSITE MATERIALS CO. LTD</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>http://www.fyfhcl.cn</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>+86 057163253751</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>jack@fyfhcl.cn</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Сырье и материалы для производства шин и резинотехнических изделий; Химикаты и добавки; Химические волокна</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>HEBEI HOLMAN AUTO PARTS CO. LTD</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>+86 18753286756</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>sales@holmanwheelweight.com</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>HEBEI JIEXING RUBBER SEALS CO. LTD</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>http://www.chinajiexing.cn</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>+86 18631971119</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>jiexingcyl@chinajiexing.cn</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>HEBEI SHUANGDA RUBBER MACHINERY CO. LTD</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>http://www.shuangdasuji.com</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>+86 3196017632</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>shuangdaxiangsu@126.com</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Шиномонтажное оборудование; Оборудование для переработки резины; Оборудование для производства шин и резинотехнических изделий; Оборудование для ошиповки</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>HEBEI ZHONGSEN MACHINERY MANUFACTURING CO. LTD</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>http://www.jichuj.cn</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>+86 13933709860</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>373087878@qq.com</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Оборудование для переработки резины; Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>HEBI RUIDA CHEMICAL TECHNOLOGY CO. LTD</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>http://www.rubberchems.com</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>+86 18739223377</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>evan@rubberchems.com</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Химикаты и добавки</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>HENAN KAILUN CHEMICAL CO. LTD</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>http://www.kailunchem.com</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>+86 3728112391</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>hnkl001@kailunchem.com</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>HENAN YONGXIN CHEMICAL CO. LTD</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>http://www.chinapvi.com</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>+86 3716481705</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>yxfjy@chinapvi.com</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Сырье и материалы для производства шин и резинотехнических изделий; Химикаты и добавки</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>HENGYANG HUAYI MACHINERY CO. LTD</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>http://www.hwayimachine.com</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>+86 7348323019</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>info@hwayimachine.com</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Оборудование для переработки резины; Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>HERBERT (HEBEI) INDUSTRY CO. LTD</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>http://www.hbtrubber.com</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>+86 2283869739</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>info@hbtrubber.com</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары; Оборудование для ошиповки</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>HONGTYRE GROUP CO. LTD</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>http://www.hongtyre.com</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>+86 53286768852</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>homer@hongtyre.com</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>HUBEI AULICE TYRE CO. LTD</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>http://www.aulicetyre.com</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>+86 13207128011</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>tyre@aolaisi.com.cn</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>HUBEI HONGMADA WHEEL CO. LTD</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>http://www.hmdlg.com</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>+86 07106806698</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>sales02@hmdwheels.com</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>HUBEI HUIFU NANOMATERIAL CO. LTD</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>http://en.hifull.com</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>+86 07176971851</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>hifull@hifull.com</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Сырье и материалы для производства шин и резинотехнических изделий; Химикаты и добавки</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>INDAG RUBBER LIMITED</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>IVISION WHEEL CO. LTD</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>http://ivisionwheels.com</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>+86 13429201264</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>sales@ivisionwheel.com</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>iWheel Co. Ltd</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>http://www.iwheel.hk</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>+86 13735770999</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>iwheel@aliyun.com</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>JIANGSU CHEESHINE PERFORMANCE MATERIALS CO. LTD</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>http://en.cheeshine.com</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>+86 2158701577</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>services@cheeshine.com</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Химикаты и добавки</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>JIANGSU DONGHAO RUBBER CO. LTD</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>http://www.duhowrubber.com.cn</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>+86 51086289879</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>info@duhowrubber.com.cn</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>JIANGSU GENERAL SCIENCE TECHNOLOGY CO. LTD</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.ty-tyre.com</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>+86 051066868791</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>santa-w@ty-tyre.com</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары; Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>JIANGSU SANYUAN TIRE CO. LTD</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>http://www.seyountyre.com</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>+86 13520270934</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>sales@seyoun.cn</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары; Оборудование для переработки шин; Научно-технические разработки; Натуральный каучук; Синтетический каучук; Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>JIANXIN TYRE (FUJIAN) CO. LTD</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>http://www.jianxintyre.com</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>+86 059583001333</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>sales@jianxintyre.com</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>JINCHENG TIANCHENG SCI-TECH CO. LTD</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>http://www.jcskysuccess.com</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>+86 03566820650</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>tian.lizhen@jcskysuccess.com</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Химикаты и добавки</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>KINFOREST</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>http://kinforest.ru</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>+7 (968) 715-7777</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>b2b@kinforest.ru</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>KORYO TYRES INDUSTRIAL (CHINA) LTD</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.koryotyre.com</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>+86 86760666</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>export@koryotyre.com</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>LEETA RUBBER TREE (THAILAND) CO. LTD</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>http://www.leetarubber.com</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>13392660610@163.com</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Сырье и материалы для производства шин и резинотехнических изделий; Научно-технические разработки; Натуральный каучук; Синтетический каучук</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>MELOS KAUCUK VE PLASTIC SAN. TIC. A.S</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>http://www.melos.com.tr</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>+90 2126146030</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>nihan@melos.com.tr</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Сырье и материалы для производства шин и резинотехнических изделий; Химикаты и добавки</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>MESNAC CO. LTD</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://en.mesnac.com</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>+86 053284011943</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>info@mesnac.com</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Контрольно-испытательное оборудование; Оборудование для переработки резины; Научно-технические разработки; Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>MICRO DENSHI (BEIJING) CO. LTD</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>http://www.microbeijing.com</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>+86 1080102110</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>zjq@micro.sina.net</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Оборудование для переработки резины; Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>NANJING MIXER INDUSTRIAL CO. LTD</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>http://www.nanjingmixer.com</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>+86 02552631617</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>info@nanjingmixer.com</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Оборудование для переработки резины</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>NEW ERA CHEMICAL SHANDONG CO. LTD</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>http://www.newerachem.com</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>+86 06315920703</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>sales@newerachem.com</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>NINGBO JUNDA AUTO PARTS INDUSTRY CO. LTD</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>http://www.nbjunda.com</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>+86 57486803009</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>junda@nbjunda.com</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары; Оборудование для авторемонтных мастерских; Восстановленные шины; Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>NINGBO XINGLUN BEAD WIRE CO. LTD</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>http://www.nbxl.net</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>+86 57163802023</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Ancy523@163.com</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>OTT RUBBERTECH INTERNATIONAL TRADE (SHANGHAI) CO. LTD</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>http://www.ott-rubbertech.com</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>+86 2166011029</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>charlene@ott-rubbertech.com</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Оборудование для авторемонтных мастерских; Оборудование для переработки резины; Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>PG ALUDA CHEMICAL CO. LIMITED</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://www.pgsilicone.com/en</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>+86 75528263542</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>info@pgsilicone.com</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Сырье и материалы для производства шин и резинотехнических изделий; Химикаты и добавки</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>PRINX CHENGSHAN (SHANDONG) TIRE COMPANY LTD</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>http://www.prinxchengshan.com</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>+86 4006188899</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>xyxia@prinxchengshan.com</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары; Восстановленные шины; Оборудование для производства шин и резинотехнических изделий; Оборудование и материалы для шиновосстановления</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>QINGDAO ALWIN MACHINERY CO. LTD</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>http://www.awichina.com</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>+86 13791926789</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>awjx1187@163.com</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Шиномонтажное оборудование; Оборудование для переработки резины; Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>QINGDAO AMBERROAD TRADE CO. LTD</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>http://amberroadgroup.com</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>+86 15966158895</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>salesmanager@amberroadgroup.com</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары; Шиномонтажное оборудование; Оборудование для переработки шин; Производство химической и нефтехимической продукции; Натуральный каучук; Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>QINGDAO AONUO TYRE CO. LTD</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>http://www.honourgroup.cn</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>+86 053285923709</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>sales@honourgroup.cn</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>QINGDAO ARIVO TYRE CO. LTD</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>http://www.arivotyre.co.uk</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>+86 17854229819</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>yeelen@arivotyre.com</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>QINGDAO AU-SHINE TYRE CO. LTD</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>http://www.aushinegroup.com</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>+86 53268066078</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>admin@aushine.com.cn</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>QINGDAO AUFINE TYRE CO. LTD</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>http://www.aufine.com</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>+86 53288960296</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>info@aufine.com</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>QINGDAO DELFI RUBBER CO. LTD</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>http://www.delphygroup.com</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>+86 53285172860</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>info@delphygroup.com</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Оборудование для переработки резины; Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>QINGDAO DICHTUNGTEK CO. LTD</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>http://www.d-tk.com</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>+86 053267731880</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>info@d-tk.com</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>QINGDAO DITRIP TYRE CO. LTD</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://www.ditriptyre.com</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>+86 53285861980</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>info@ditriptyre.com</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>QINGDAO ECOSTAR TIRE CO. LTD</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>QINGDAO FENYUN RUBBER MACHINE MANUFACTURE CO. LTD</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>http://www.fenyun.com</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>+86 53282527352</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>fy@fenyun.com</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Конвейерные ленты; Приводные ремни; Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>QINGDAO FLORESCENCE CO. LTD</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>http://www.florescencetube.com</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>+86 53286760999 (доб./ext. 805)</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>info85@florescence.cc</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>QINGDAO FORESION AUTOMATION CO. LTD</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>http://www.foresion.com</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>+86 4008885190</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>tonyhan@foresion.com</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Оборудование для переработки резины; Оборудование для переработки шин; Химикаты и добавки; Металлокорд; Научно-технические разработки; Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>QINGDAO HAICHUAN RUBBER CO. LTD</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>http://www.haichuanrubber.com</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>+86 53267730188</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>janson@zihairubber.com.cn</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары; Восстановленные шины</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>QINGDAO HENGDA TYRE CO. LTD</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>http://www.hengdatyre.com</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>+86 053268972391</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>mandy@hongchityre.com</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары; Восстановленные шины; Производство химической и нефтехимической продукции; Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>QINGDAO HONGHUA TYRE FACTORY</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>http://www.honghuatyre.com</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>+86 053285822568</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>John@honghuatyre.com</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>QINGDAO HONGTION TONDA INTERNATIONAL TRADING CO. LTD</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>http://www.longstartyre.com</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>+86 13705465224</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>tanya@longstartyre.com</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>QINGDAO HUACHI TYRE CO. LTD</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>+86 13608984151</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>sussie@huachityre.com</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>QINGDAO HUASHENG RUBBER CO. LTD</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>http://www.huashengtyres.com</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>+86 53286613611</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>sales@huashengtyres.com</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>QINGDAO HUICAI MACHINE MANUFACTURE CO. LTD</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>http://www.huicaiglobal.com</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>+86 18765931987</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>oksana@huicaiglobal.com</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Шиномонтажное оборудование; Оборудование для переработки резины; Оборудование для производства шин и резинотехнических изделий; Оборудование для ошиповки</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>QINGDAO JIALIAN TYRE CO. LTD</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>http://www.kingnatetyre.com</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>+86 17305320178</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>cici@kingnatetyre.com</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>QINGDAO JUSTAR IMPORT AND EXPORT CO. LTD</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>http://www.cnjustar.com</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>+86 53258510532</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>teo@cnjustar.com</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>QINGDAO LANDSPIDER TIRE CO. LIMITED</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>http://www.landspidertire.com</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>+86 053258628070</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>ekaterina.zhou@landspidertire.com</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>QINGDAO MAOYUANFENG INDUSTRY &amp; TRADE CO. LTD</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>http://www.maoyuanfeng.com</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>+86 18853283999</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>jason@maoyuanfeng.com</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Оборудование для переработки резины; Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>QINGDAO NEWDESEN INDUSTRY CO. LTD</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>http://www.newdesen.com</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>+86 13465859213</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>sales@newdesen.com</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары; Шиномонтажное оборудование; Контрольно-испытательное оборудование; Оборудование для переработки резины; Оборудование для производства шин и резинотехнических изделий; Оборудование для ошиповки</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>QINGDAO NOAHARK TYRE CO. LTD</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>http://www.xbri.com</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>+86 13791998830</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>info@xbri4x4tires.com</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>QINGDAO OCSEN INDUSTRIAL COMPANY LIMITED</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>http://www.ocsengroup.com</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>+86 53267798515</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>mark@ocsengroup.com</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары; Оборудование для производства шин и резинотехнических изделий; Оборудование и материалы для шиновосстановления; Оборудование для ошиповки</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>QINGDAO OTAI TIRE CO. LTD</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>http://www.touradortyre.com</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>+86 53287823051</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>jody@otaitire.com</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>QINGDAO PATHFINDER MACHINERY EQUIPMENT CO. LTD</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>http://www.qdpathfinder.com</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>+86 15610516601</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>tony@qdpathfinder.com</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Шиномонтажное оборудование; Оборудование для авторемонтных мастерских; Оборудование для производства шин и резинотехнических изделий; Оборудование для ошиповки</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>QINGDAO QIANZHEN TYRE CO. LTD</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>http://www.tiremastercn.com</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>+86 13793286971</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>kevintrade2008@hotmail.com</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>QINGDAO QIZHOU RUBBER CO. LTD</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>http://www.marchertire.com</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>+86 13708950654</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>admin@marchertire.com</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>QINGDAO QJ INDUSTRIAL INC</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>http://www.qandjgroup.com</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>+86 53286998145</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>export7@qandjgroup.com</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>QINGDAO RILI TYRE CO. LTD</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>http://www.rilityre.com</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>+86 53282301582</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>rililuntai@163.com</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>QINGDAO RUNYE INTERNATIONAL TRADING CO. LTD</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>http://www.yzwheel.cn</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>+86 13455469082</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>jone@yzwheel.cn</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>QINGDAO SEA KING MACHINERY CO. LTD</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>http://www.seakingmachine.com</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>+86 18669881808</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>info@seakingmachine.com</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Шиномонтажное оборудование; Оборудование для переработки резины; Сырье и материалы для производства шин и резинотехнических изделий; Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>QINGDAO SHENTONG MACHINERY</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>http://www.shentong-tech.cn</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>+86 053286593678</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>enquiry@shentong-tech.cn</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>QINGDAO SHUN CHEONG RUBBER MACHINERY MANUFACTURING CO. LTD</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>http://www.cn-rubbermachine.com</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>+86 13963975727</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>info@sfcjx.com</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>QINGDAO SUMAXX TYRE CO. LTD</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>http://www.sunforcetyre.com</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>+86 15898889692</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>amy@sunforcetyre.com</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>QINGDAO SUNWIDE TYRE CORP. LIMITED</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>http://www.sunwidetyre.com</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>+86 18661614227</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>sara@sunwidetyre.com</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>QINGDAO TAIHAO TYRE CO. LTD</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>http://www.taihaotyre.com</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>+86 53285611626</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>sale@taihaotyre.com</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>QINGDAO UBESTY TECHNOLOGY CO. LTD</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>http://www.ubesty.cn</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>+86 18753286756</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>18753286756@163.com</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары; Оборудование для переработки шин; Восстановленные шины; Натуральный каучук; Асбестовые технические изделия</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>QINGDAO UNI-POWER TYRE CO. LTD</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>http://www.powertractyre.com</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>+86 53267788675</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>info@powertractyre.com</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>QINGDAO WANGYU RUBBER CO. LTD</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>http://www.wangyutire.com</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>+86 15335429706</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>sales22@wangyutyre.com</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары; Оборудование для переработки резины; Конвейерные ленты; Натуральный каучук; Синтетический каучук; Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>QINGDAO WELLTECH CHEMICALS CO. LTD</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>http://www.welltechchem.com</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>+86 18562618251</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>eric@welltechchem.com</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Сырье и материалы для производства шин и резинотехнических изделий; Химикаты и добавки</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>QINGDAO WHEELPLUX TRADING CO. LTD</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>http://www.wheelplux.com</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>+86 18661477981</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Antony@wheelplux.com</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>QINGDAO XCENT INTERNATIONAL TRADING CO. LTD</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>http://Ru.macroyaltyre.com</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>+86 13675421191</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>johnhan@macroyaltyre.com</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>QINGDAO XIANGJIE RUBBER MACHINERY CO. LTD</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>http://www.qdxiangjie.com</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>+86 532 86191388</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>info@qdxiangjie.com</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>QINGDAO YOMAR TIRE CO. LTD</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>http://www.yomartire.com</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>+86 18556121781</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>illa@youmartire.com</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары; Восстановленные шины; Натуральный каучук</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>REBO NEW MATERIAL GROUP</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>http://www.rebochem.com</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>+86 05397128333</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>zhanglinfeng@rebochem.com</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Сырье и материалы для производства шин и резинотехнических изделий; Химикаты и добавки; Научно-технические разработки</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>RENQIU JIUHONG RUBBER PRODUCTS CO. LTD</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>http://www.jhsil.com</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>+86 03172268269</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>rqksxs@163.com</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Сырье и материалы для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>ROADMARCH TYRE CO. LTD</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>http://www.roadmarchtyre.com</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>+86 53267788675</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>info@roadmarchtyre.com</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>ROADOR</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>http://www.dadatyres.ru</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>+7 (985) 003-2305</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>sales@dadatyres.ru</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>RONHIN AGRICULTURAL DEVELOPMENT (QINGDAO) CO. LTD</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>http://www.chinamainland.com</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>+86 15063986633</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>cathy@chinamidland.com</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Синтетический каучук</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>SERVICE TYRES (PRIVATE) LIMITED</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://www.servistyres.com/</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>+92 3018438989</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>rizwan.malik@servis.com</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>SHANDONG CHANGFENG TYRES CO. LTD</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>http://en.changfengtires.com</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>+86 5466893656</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>sales@changfengtires.com</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>SHANDONG DEEMAX RUBBER TECHNOLOGY CO. LTD</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>http://www.deemaxrubber.com</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>+86 53266065607</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>info@deemaxrubber.com</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>SHANDONG HAOHUA TIRE CO. LTD</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>http://En.haohuatire.com</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>+86 53267788360</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>export@haohuatire.com</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары; Шиномонтажное оборудование; Оборудование для ошиповки</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>SHANDONG HUASHENG RUBBER CO. LTD</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>http://www.hstyre.com</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>+86 53255760086</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>export@hstyre.com</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>SHANDONG JINTAI ROLLS CO. LTD</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>http://jintai-rolls.en.made-in-china.com</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>+86 13561609505</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>jintai_rolls@vip.sina.com</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Оборудование для переработки резины</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>SHANDONG KAIXUAN TIRE IMPORT AND EXPORT CO. LTD</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>http://www.greforcetire.com</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>+86 053255712313</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>ivy@greforcetire.com</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары; Восстановленные шины; Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>SHANDONG KEYSTONE RUBBER GROUP CO. LTD</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://keystonetire.en.alibaba.com/</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>+86 15910053139</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>sales02keystone@163.com</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары; Шиномонтажное оборудование; Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>SHANDONG LONGSTAR AUTOPARTS CO. LTD</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>http://www.sanrich.cn</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>+86 15066096977</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>steelwheelfactory@163.com</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>SHANDONG NEW CONTINENT TIRE CO. LTD</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>SHANDONG PROVINCE SANLI TIRE MANUFACTURE CO. LTD</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>http://www.sanlityre.com</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>+86 5303231972</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>sanli@sanlitire.com</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>SHANDONG REIDA TECHNOLOGY GROUP CORPORATION LTD</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>http://www.chinareida.com</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>+86 05358445555</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>3002@chinareida.com</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>SHANDONG SUN AUTO PARTS CO. LTD</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>http://en.sunautoparts.cn</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>+86 53283950070</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>jiangbin@sunautoparts.cn</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>SHANDONG SUPER LAND RUBBER TECHNOLOGY CO. LTD</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>http://www.superlandtire.com</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>+86 13969858788</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>sales1@superlandtire.com</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>SHANDONG TIANLUN CHEMICAL TECHNOLOGY CO. LTD</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>+86 18754677666</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>820400204@qq.com</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>SHANDONG TRANSTONE TYRE CO. LTD</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>http://www.transtonetire.com</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>+86 53255576319</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>info@transtonetire.com</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>SHANDONG WANDA BOTO TYRE CO. LTD</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>http://www.bototyre.com</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>+86 5462062089</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Jennifer@bototyre.com</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары; Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>SHANDONG WIDEWAY TIRE CO. LTD</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>http://www.widewaytire.com</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>+86 18560687375</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>info@widewaytire.com</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>SHANDONG YINBAO TYRE GROUP CO. LTD</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>http://www.yinbaotyre.com</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>+86 15069675651</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>goldtyre@163.com</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары; Сырье и материалы для производства шин и резинотехнических изделий; Технический углерод</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>SHANDONG ZHENYUAN AUTOMOBILE WHEEL CO. LTD</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>http://www.shandongzhenyuan.com</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>+86 15253276663</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>collin.w@zenueswheel.com</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>SICHUAN FUDI NEW ENERGY CO. LTD</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>http://www.fudifkm.com</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>+86 2864344926</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>sales@fudichem.com</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Сырье и материалы для производства шин и резинотехнических изделий; Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.); Прорезиненные ткани и изделия из них; Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>SPORTRAK TIRE CO. LTD</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>http://www.sportraktire.com</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>+86 53268972573</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>export@sportraktire.com</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>SUNTOP TIRE (WUXI) CO. LTD</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>http://www.fareasttire.com</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>+86 51083781161</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>suntoptire@163.com</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>TECHKING TIRES LIMITED</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>http://www.techking.com</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>+86 53255588888</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>info@techking.com</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>TIANJIN BENHEURE ELEC-MECH TRADE CO. LTD</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>+86 15617509306</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>zhangshan@benheure.com</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Шиномонтажное оборудование; Сырье и материалы для производства шин и резинотехнических изделий; Оборудование для производства шин и резинотехнических изделий; Оборудование для ошиповки</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>TIANJIN EASTRICHON INTERNATIONAL TRADE CO. LTD</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>http://www.eastrichon.com</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>+86 2258613877</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>info@eastrichon.com</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Химикаты и добавки</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>TIANJIN WANDA TYRE GROUP CO. LTD</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>http://www.tjwanda.com</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>+86 18622762284</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>wangyucheng@tjwanda.com</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>TRANSAMERICA TIRE CO. LTD</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>http://www.transamericatire.com</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>+1 832 891 2821</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>marketing@transamericatire.com</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>ULTRAFORCE OFFROAD TIRES CO. LIMITED</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://www.ultraforcetires.com</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>+86 53280928779</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>marketing@ultraforcetires.com</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>WANLI TIRE CORPORATION LIMITED</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>https://www.wanli-global.com</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>+86 13928872186</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>cfcheng@wanlitire.cn</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>WEIFANG GUANQI INDUSTRIAL TECHNOLOGY CO. LTD</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>http://www.guanqityre.com</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>+86 15866199676</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>sweety@guanqityre.com</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>WEIFANG SHUNFUCHANG RUBBER &amp; PLASTIC PRODUCTS CO. LTD</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>http://www.sunfulcess.com</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>+86 053288900536</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>alice.liu@sunfulcess.com</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>WEIFANG YUELONG RUBBER CO. LTD</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>http://www.yuelonggroup.net</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>+86 053255713418</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>info@yuelonggroup.net</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>WEIHAI JIAHANG RUBBER TECHNOLOGY CO. LTD</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>http://www.sanfengchina.cn</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>+86 6318358698</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>sale01@jiahangrubber.com</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>WEIHAI RUNTONG RUBBER CO. LTD</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>http://www.whruntong.com</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>+86 6318188559</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Whruntong@163.com</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары; Шиномонтажное оборудование; Оборудование для переработки шин; Натуральный каучук; Синтетический каучук; Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>WELLGO</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>http://wellgo.ru</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>8 800 770-7101</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>info@wellgo.ru</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Транспортно-логистические услуги</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>WUHAN MOULD</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>http://www.wuhanmould.cn</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>+86 18871209201</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>zhang@wuhanmould.cn</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Рукава и патрубки различного назначения; Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.); Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>XIAN MITERAS TYRE CO. LIMITED</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>http://www.miterastire.com</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>+86 02988997596</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>admin@miterastire.cn</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>YINGTAI INTERNATIONAL TRADING CO. LTD</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>http://www.qdytchem.com</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>+86 53280972829</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>carry@qdytchem.com</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Сырье и материалы для производства шин и резинотехнических изделий; Химикаты и добавки; Химические волокна</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>ZHEJIANG BAINA RUBBER &amp; PLASTIC EQUIPMENT CO. LTD</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>http://www.zjbaina.com</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>+86 57687685299</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Gallen.Woo@zjbaina.com</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Шиномонтажное оборудование; Оборудование для переработки резины; Оборудование для производства шин и резинотехнических изделий; Оборудование для ошиповки</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>ZHEJIANG KINGNO MACHINERY CO. LTD</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>http://www.kingno.cn</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>+86 13675807570</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>kingscrew@163.com</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Шиномонтажное оборудование; Оборудование для переработки резины; Оборудование для производства шин и резинотехнических изделий; Оборудование для ошиповки</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>ZHEJIANG QINGDA RUBBER CO. LTD</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>http://www.qindtire.com</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>+86 579 87205288</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>qind006@qindtire.com</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>ZHEJIANG XINAN CHEMICAL INDUSTRIAL GROUP CO. LTD (WYNCA GROUP)</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>http://www.wynca.com</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>+86 18768287200</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>vera_yuan@wynca.cn</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>ZHENGZHOU DOUBLE VIGOUR CHEMICAL PRODUCT CO. LTD</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>http://www.zz-chem.com</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>+86 037163659198</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>sale1@doublevigour.com</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Химикаты и добавки</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>ZHONGCE RUBBER GROUP CO. LTD</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>http://www.zc-rubber.com</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>+86 15618868408</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>sales@zc-rubber.com</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>ZHONGYI RUBBER CO. LTD</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>http://www.zhongyityres.com</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>+86 15954674206</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>enku@zhongyityres.com</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>ZHUZHOU JINXIN STUDS CO. LTD</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>https://jinxin.ru</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>+86 15873358163</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>sales09@jxcarbide.com</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>ZODO TIRE CO. LTD</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>http://www.zodotire.cn</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>+86 053288701612</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>leo@longyuetyres.com</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>АВАН ТРАНСПОРТ, OOO</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>https://www.optshini.ru</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>+7 (911) 350-2223</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>gvolkovs@gmail.com</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>АЛТАЙСКИЙ ШИННЫЙ КОМБИНАТ, АО</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>http://www.ashk.ru</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>+7 (3852) 22-19-55</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>priemnay@ashk.ru</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары; Контрольно-испытательное оборудование; Химикаты и добавки; Научно-технические разработки; Программное обеспечение; Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>АЛЬФА-ФТОР, ООО</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>https://alfaftor.ru</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>+7 (495) 774-8823</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>info@alfaftor.ru</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Сырье и материалы для производства шин и резинотехнических изделий; Химикаты и добавки; Производство химической и нефтехимической продукции; Научно-технические разработки; Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.); Синтетический каучук</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>АМКОДОР-ЭЛАСТОМЕР, ЗАО</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>https://elastomer.by</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>+375 (17) 162-1600</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>info@elastomer.by</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Сырье и материалы для производства шин и резинотехнических изделий; Рукава и патрубки различного назначения; Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>АССОЦИАЦИЯ КОНСУЛЬТАНТОВ ПО ПОДБОРУ ПЕРСОНАЛА (АКПП)</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>http://www.apsc.ru</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>dir@apsc.ru</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Информационные издания</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>АССОЦИАЦИЯ СОДЕЙСТВИЯ ВОССТАНОВЛЕНИЮ И ПЕРЕРАБОТКЕ ШИН «ШИНОЭКОЛОГИЯ»</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>http://www.shinoecologhia.ru</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>+7 (926) 628-6217</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>info@shinoeco.ru</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Оборудование для переработки резины; Оборудование для переработки шин; Металлокорд; Восстановленные шины; Научно-технические разработки; Оборудование и материалы для шиновосстановления</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>БАЛАКОВСКИЙ СТАНКОСТРОИТЕЛЬНЫЙ ЗАВОД, ГК</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>БЕЛАРУСЬРЕЗИНОТЕХНИКА, ОАО</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>http://www.aobrt.by</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>+375 (225) 44-70-64</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>info@aobrt.by</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Конвейерные ленты; Рукава и патрубки различного назначения; Приводные ремни; Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>БЕЛСТРОЙИНДУСТРИЯ, ОАО</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>http://www.bpabsi.by/</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>+375 (17) 364-82-24</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>bsi@bpabsi.by</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.); Прорезиненные ткани и изделия из них</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>БЕНЕФИТ-ХИМ, ООО</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>http://benefit-him.ru</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>+7 (499) 283-8809</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>order@benefit-him.ru</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Сырье и материалы для производства шин и резинотехнических изделий; Химикаты и добавки; Производство химической и нефтехимической продукции; Натуральный каучук; Синтетический каучук; Асбестовые технические изделия</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>БИГМАШИН, ООО</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>https://bigmachine.pro</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>8 800 700-1509</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>info@bigm.pro</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>БМП ТЕХНОЛОДЖИ, ООО</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>http://silrub.bmptech.ru</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>+7 (495) 644-4620 / 1</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>jl@bmptech.ru</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Сырье и материалы для производства шин и резинотехнических изделий; Химикаты и добавки; Производство химической и нефтехимической продукции; Рукава и патрубки различного назначения; Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.); Синтетический каучук</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>БРЕСТМАШ, ОАО</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>http://www.bmz.brest.by</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>+375 (162) 932242</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>general@bmz.by</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Рукава и патрубки различного назначения</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>БРИНЭКС, ООО</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>http://www.brinex.ru</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>8 800 250-9780</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>b2b@brinex.ru</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары; Шиномонтажное оборудование; Оборудование для авторемонтных мастерских; Натуральный каучук; Оборудование и материалы для шиновосстановления; Оборудование для ошиповки</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>БСТ</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>8 800 600-1199</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>bst.office@mail.ru</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>ВИРАЖ ТРАК</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>http://viragett.ru</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>+7 (911) 001-6700</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>raf@spbvt.ru</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары; Натуральный каучук</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>ВОЛГОПРОМТРАНС, ООО</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>http://volgopromtrans.ru</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>+7 (8443) 34-15-92</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>sales@volgopromtrans.ru</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Рукава и патрубки различного назначения</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>ВОЛЖСКИЙ НАУЧНО-ТЕХНИЧЕСКИЙ КОМПЛЕКС (ФИЛИАЛ) ВОЛГГТУ</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>http://www.vntk-org.ru</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>om@vntk-org.ru</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Производство химической и нефтехимической продукции; Научно-технические разработки; Рукава и патрубки различного назначения; Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.); Прорезиненные ткани и изделия из них; Асбестовые технические изделия</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>ВОЛОЧОК ДМИТРИЙ ЕГОРОВИЧ, ИП</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>ВОСТОЧНЫЙ ЭКСПРЕСС, ООО</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>http://greenstonetyres.ru</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>+7 (965) 678-3787</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>eastexpress86@mail.ru</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>ГРАНДТРЭК, ООО</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>https://grandtrek.ru</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>+7 (900) 277-2220</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>manager1@grandtrek.pro</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>ГРУЗОВИК ПРЕСС, ЖУРНАЛ</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>http://www.gruzovikpress.ru</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>+7 (495) 638-5445</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>ttn@rosb.ru</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Информационные издания</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>ГУММА ЛАЙН</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>http://www.gomma.rs</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>+7 (927) 608-6745</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>dl.borodinkina@gommaline.com</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Рукава и патрубки различного назначения; Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>ЕВРО КЕМИКАЛС, ООО</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>http://www.eurochemicals.ru</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>+7 (495) 005-2375</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>info@eurochemicals.ru</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Сырье и материалы для производства шин и резинотехнических изделий; Научно-технические разработки; Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.); Прорезиненные ткани и изделия из них; Синтетический каучук</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>ЕВРОХИМ-ТРЕЙД, ООО</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>http://www.eurohim.trade</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>+7 (931) 534-1389</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>order@eurohim.trade</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Сырье и материалы для производства шин и резинотехнических изделий; Технический углерод; Химикаты и добавки; Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.); Натуральный каучук; Синтетический каучук</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>ЕТС, Группа Компаний</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>http://www.utsrus.com</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>+7 (812) 389-5555</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>uts@utsrus.com</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Сырье и материалы для производства шин и резинотехнических изделий; Химикаты и добавки; Химические волокна; Натуральный каучук; Синтетический каучук</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>ЗЕЛЕНАЯ РЕЗИНА, ООО</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>https://greenrubber.ru</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>+7 (495) 220-4328</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>info@greenrubber.ru</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Оборудование для переработки шин; Производство химической и нефтехимической продукции; Натуральный каучук; Синтетический каучук</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>ЗЕРМА — ЛОММЕРС</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>http://www.zerma.ru</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>+7 (495) 517-9707</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>zerma.ru@zerma.ru</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Оборудование для переработки резины; Оборудование для переработки шин</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>ИНСТРОМЕТ, ООО</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>https://instromet.pro</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>+7 (962) 570-6723</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>alex_instromet@mail.ru</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Оборудование для переработки резины; Оборудование для переработки шин; Резка резиновых и каучуковых изделий; Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>ИНТЕР ПРОМ, ООО</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>http://interprom.me</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>+7 (343) 344-6333</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>info@interprom.me</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Контрольно-испытательное оборудование; Оборудование для переработки резины; Сырье и материалы для производства шин и резинотехнических изделий; Научно-технические разработки; Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.); Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>ИНТЕРПОЛЕ</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>ИСТРА, СКБ, АО</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>http://www.istra-trade.ru</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>+7 (495) 995-1968</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>info@istra-trade.ru</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары; Сырье и материалы для производства шин и резинотехнических изделий; Химикаты и добавки; Химические волокна; Натуральный каучук; Синтетический каучук</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>КАЗАНСКАЯ РЕЗИНА, ЗАВОД (ООО «ЦЕНТР РТИ»)</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>http://www.centerrti.ru</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>8 800 600-8485</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>info@centerrti.ru</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Производство химической и нефтехимической продукции; Конвейерные ленты; Рукава и патрубки различного назначения; Приводные ремни; Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.); Прорезиненные ткани и изделия из них</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>КАУЧУК И РЕЗИНА, ИЗДАТЕЛЬСТВО, ООО (ООО КИР)</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>http://www.kir-journal.ru</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>+7 (915) 346-3730</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>kir@kired.ru</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Информационные издания</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>КВЕНБЕРГЕР ЛОГИСТИКС РУС, АО</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>http://www.quehenberger.com</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>+7 (812) 633-0282</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>infostp@quehenberger.ru</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары; Восстановленные шины; Транспортно-логистические услуги</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>КЕРАМЕКС, ООО</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>http://www.ceramex.ru</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>+7 (4852) 58-19-21, 58-19-31, 58-19-32, 58-19-37</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>info@sevak.ru</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Сырье и материалы для производства шин и резинотехнических изделий; Химикаты и добавки; Натуральный каучук; Синтетический каучук</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>КНИДЕР, ООО</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>http://kneader-russia.ru</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>+7 (495) 640-8388</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>office@kneader-russia.com</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Контрольно-испытательное оборудование; Оборудование для переработки резины; Сырье и материалы для производства шин и резинотехнических изделий; Научно-технические разработки; Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.); Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>КОЛЕСНЫЙ РЯД, ООО</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>http://kolrad.ru</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>+7 (495) 150-0580</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>zakaz@kolrad.ru</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>КОМЕД, ООО</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>http://ooo-komed.ru</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>+7 (905) 483-4164</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>tkachenko.e@ooo-komed.ru</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Оборудование для переработки резины; Производство химической и нефтехимической продукции; Научно-технические разработки; Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.); Синтетический каучук; Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>КОМПОЗИТ-ТРЕЙД, ООО</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>http://www.composite.ru</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>+7 (812) 322-9169</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>office@composite.ru</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары; Рукава и патрубки различного назначения; Приводные ремни; Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.); Натуральный каучук; Синтетический каучук</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>КОНКОРД-ХИМ</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr"/>
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>КРАТОН</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>https://kraton-russia.ru</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>+7 (495) 188-8108</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>@kraton-russia.ru</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Резка резиновых и каучуковых изделий; Прорезиненные ткани и изделия из них; Синтетический каучук; Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>КСИЛОН, ООО</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>http://www.ksilonufa.ru</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>+7 (347) 224-92-52</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>ksilonplus@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Сырье и материалы для производства шин и резинотехнических изделий; Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.); Прорезиненные ткани и изделия из них</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>ЛЕКСОР, ООО</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>https://lexor.pro</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>+7 (921) 340-0212</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>evgeniamaksimovic@gmail.com</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары; Оборудование для переработки резины; Оборудование для переработки шин; Металлокорд; Резка резиновых и каучуковых изделий; Конвейерные ленты</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>ЛЕСОХИМИК, ОАО</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>http://www.lesohimik.by</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>+375 (17) 773-6514</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>sales@lesohimik.by</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Сырье и материалы для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>ЛОГОС ХОЛДИНГ, ООО</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr"/>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>+7 (499) 490-5642</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Сырье и материалы для производства шин и резинотехнических изделий; Технический углерод; Химикаты и добавки; Натуральный каучук; Синтетический каучук</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>МЕЛАРИС, ООО</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>http://www.melaris.ru</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>+7 (495) 603-7490</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>melaris@melaris.ru</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары; Восстановленные шины; Оборудование и материалы для шиновосстановления</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>МИР НЕФТЕПРОДУКТОВ</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>http://www.neftemir.ru</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>+7 (812) 313-5414</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>info@neftemir.ru</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Информационные издания</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>НОВОКАОЛИНОВЫЙ ГОК</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr"/>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>НОВЫЙ ДОМ, ООО (PALIZH™)</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>http://www.palizh.ru</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>+7 (3412) 464-700</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>info@palizh.ru</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Сырье и материалы для производства шин и резинотехнических изделий; Химикаты и добавки; Научно-технические разработки</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>НОРDШИНА</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>http://www.eurochimgroup.ru</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>+7 (812) 240-8484</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>order@nordshina.ru</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>НОРТЕКС</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr"/>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>ОЛДЭНГ</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>https://rezina.tech</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>+7 (343) 251-98-65</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>master@litmach.ru</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Оборудование для переработки резины; Оборудование для переработки шин; Резка резиновых и каучуковых изделий; Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>ОПЫТНЫЙ ЗАВОД РТИ — ПОДОЛЬСК, ООО</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>https://zavod-rti.ru</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>+7 (499) 501-8459</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>omip@zavod-rti.ru</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Сырье и материалы для производства шин и резинотехнических изделий; Производство химической и нефтехимической продукции; Научно-технические разработки; Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>ПЕНТА-91, ООО</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>http://www.penta-91.ru</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>+7 (495) 730-0530</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>penta@penta-91.ru</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Сырье и материалы для производства шин и резинотехнических изделий; Химикаты и добавки; Производство химической и нефтехимической продукции; Научно-технические разработки; Синтетический каучук; Оборудование и материалы для шиновосстановления</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>ПетроМастер, ООО</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>http://petromaster.ru</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>+7 (812) 244-0504</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>info@petromaster.ru</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары; Восстановленные шины</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>ПИРОЛИЗ-ЭКОПРОМ ПТК, ООО</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>http://www.piroliz-ecoprom.ru</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>+7 (920) 029-2200</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>piroliz-ecoprom@mail.ru</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Оборудование для переработки резины; Оборудование для переработки шин; Технический углерод; Металлокорд; Производство химической и нефтехимической продукции</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>ПОЛИМЕРМАШ, ООО</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>http://www.zavodkrasina.ru</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>+7 (4942) 31-43-48</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>zavod@poliymermash.ru</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Оборудование для переработки резины; Резка резиновых и каучуковых изделий; Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>ПОЛИМЕРНЫЕ МАТЕРИАЛЫ, ЖУРНАЛ</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>https://polymerbranch.com</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>+7 (499) 265-5035</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>info@polymerbranch.com</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Информационные издания</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>ПОЛИТЕХНОВЭД</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>http://ptved.ru</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>+7 (8453) 23-22-90</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>ptnved@mail.ru</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Оборудование для переработки резины; Сырье и материалы для производства шин и резинотехнических изделий; Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.); Натуральный каучук; Синтетический каучук; Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>ПОЛИЭДР, ФИРМА, ООО</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>http://www.poliedr.ru</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>+7 (495) 996-7915</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>rtipoliedr@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>РД ГРУПП, ООО</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>http://www.rdgroupltd.com</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>+7 (812) 380-9520</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>info@rdgroupltd.com</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Научно-технические разработки</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>РЕВАДА-НЕВА, ООО</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>https://revada-group.com</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>+7 (812) 337-3336</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>mark.sorokin@revada-group.com</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Сырье и материалы для производства шин и резинотехнических изделий; Химикаты и добавки; Натуральный каучук</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>РЕЛИЗ, ООО</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>http://www.reliz16.com</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>+7 (8552) 40-82-00</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>info@reliz16.com</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Оборудование для переработки резины; Оборудование для переработки шин; Сырье и материалы для производства шин и резинотехнических изделий; Производство химической и нефтехимической продукции; Научно-технические разработки; Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>РусСилика, ООО</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>http://www.rus-silica.com</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>8 800 222-8008</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>info@russilica.ru</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары; Сырье и материалы для производства шин и резинотехнических изделий; Химикаты и добавки; Производство химической и нефтехимической продукции; Научно-технические разработки; Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>РУСХИМСЕТЬ</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>http://www.rushimset.ru</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>+7 (495) 730-1212</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>mail@rushimset.ru</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Сырье и материалы для производства шин и резинотехнических изделий; Химикаты и добавки; Натуральный каучук; Синтетический каучук</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>РУФОМ ПК, ООО</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>https://rufom.tech</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>8 800 707-8985</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>info@neopren.com.ru</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.); Прорезиненные ткани и изделия из них; Синтетический каучук</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>РЫНОК ЭЛЕКТРОТЕХНИКИ, ЖУРНАЛ</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>http://www.marketelectro.ru</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr"/>
+      <c r="D237" t="inlineStr"/>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Информационные издания</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>САМ-МБ</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>https://svrauto.ru</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>+7 (495) 544-2120</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>kontaktB2B@svrauto.ru</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>САМСТАЛ, ООО</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>http://www.samstal.ru</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>+7 (846) 212-0426</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>info@samstal.ru</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Рукава и патрубки различного назначения; Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.); Натуральный каучук; Синтетический каучук</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>САН СУСИ, ООО (STETCO™), ООО</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>http://www.stankiprofi.ru</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>+7 (495) 518-9448</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>sales@stetco.ru</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Контрольно-испытательное оборудование; Оборудование для переработки резины; Сырье и материалы для производства шин и резинотехнических изделий; Резка резиновых и каучуковых изделий; Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.); Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>СИБУР ХОЛДИНГ, ПАО</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>http://www.sibur.ru</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>+7 (495) 777-5500</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>info@sibur.ru</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары; Сырье и материалы для производства шин и резинотехнических изделий; Химикаты и добавки; Производство химической и нефтехимической продукции; Синтетический каучук</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>СИЛИКОНПРОМ, ООО</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>http://www.siliconprom.ru</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>+7 (499) 719-6258</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>sales@siliconprom.ru</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Резка резиновых и каучуковых изделий; Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.); Натуральный каучук; Синтетический каучук</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>СОДРУЖЕСТВО</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>http://concord-chem.ru</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>+7 (921) 404-9470, 871-3888</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>op1@concord-chem.ru</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Оборудование для переработки резины; Сырье и материалы для производства шин и резинотехнических изделий; Химические волокна; Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.); Синтетический каучук; Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>СТЕРЛИТАМАКСКИЙ НЕФТЕХИМИЧЕСКИЙ ЗАВОД, АО</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>http://www.snhz.ru</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>+7 (3473) 294-039</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>info.snhz@ruschem.ru</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Сырье и материалы для производства шин и резинотехнических изделий; Производство химической и нефтехимической продукции; Синтетический каучук</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>ТАМБОВПОЛИМЕРМАШ ЗАВОД, ООО</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>http://www.tambovpolimer.ru</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>+7 (4752) 63-43-03</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>zavod@tambovpolimer.ru</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Контрольно-испытательное оборудование; Оборудование для переработки резины; Оборудование для переработки шин; Резка резиновых и каучуковых изделий; Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.); Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>ТЕХНОСФЕРА, РИЦ</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>http://www.technosphera.ru</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>+7 (495) 234-0110</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>sales@technosphera.ru</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Информационные издания</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>ТЕХОСНАСТКА-РТД, ООО</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>http://www.tehosnastkartd.ru</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>+7 (8443) 38-68-32, 38-68-57</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>tehrtd@gmail.com</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Производство химической и нефтехимической продукции; Научно-технические разработки; Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.); Синтетический каучук</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>ТК ИНЖИНИРИНГ, ООО</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>https://tkengineering.ru</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>+7 (495) 410-2169</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>sales@tkengineering.ru</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Оборудование для переработки резины; Оборудование для переработки шин</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>ТОЧКА ОПОРЫ, ДЕЛОВОЙ ЖУРНАЛ</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>http://www.to-inform.ru</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr"/>
+      <c r="D249" t="inlineStr"/>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Информационные издания</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>ТРАНСТЕХНО</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>https://darwinplus.ru</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>+7 (495) 792-9982</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>info@darwinplus.ru</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Сырье и материалы для производства шин и резинотехнических изделий; Конвейерные ленты; Рукава и патрубки различного назначения; Приводные ремни; Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>ТУЛЬСКИЙ ЗАВОД РЕЗИНОВЫХ ТЕХНИЧЕСКИХ ИЗДЕЛИЙ (РТИ), АО</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>http://www.tularti.ru</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>+7 (4872) 35-40-86</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>rti@tularti.ru</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Сырье и материалы для производства шин и резинотехнических изделий; Конвейерные ленты; Приводные ремни; Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.); Прорезиненные ткани и изделия из них; Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>УЛЬТРАМОЛ, ООО</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>http://www.ultramol.ru</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>+7 (4712) 774-7072</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>info@ultramol.ru</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Оборудование для переработки резины; Оборудование для переработки шин; Сырье и материалы для производства шин и резинотехнических изделий; Химикаты и добавки; Резка резиновых и каучуковых изделий; Программное обеспечение</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>УРАЛШИНА, ООО</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>http://www.uralshina.ru</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>+7 (343) 264-1200</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>shina@uralshina.ru</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>УРАЛЬСКИЙ ЗАВОД ЭЛАСТОМЕРНЫХ УПЛОТНЕНИЙ, ЗАО</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>http://www.zavodrti.ru</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>+7 (343) 302-0020</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>info@zavodrti.ru</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>Сырье и материалы для производства шин и резинотехнических изделий; Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.); Прорезиненные ткани и изделия из них</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>ФТОРЭЛАСТОМЕРЫ, ООО</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>http://www.ftorelast.ru</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>+7 (495) 643-2297</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>info@ftorelast.ru</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Оборудование для переработки резины; Сырье и материалы для производства шин и резинотехнических изделий; Химикаты и добавки; Резка резиновых и каучуковых изделий; Натуральный каучук; Синтетический каучук; Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>ХАБАРОВСКАЯ ТОРГОВАЯ КОМПАНИЯ, ООО</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>http://www.amurshina.ru</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>+7 (924) 210-2979</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>a.grachev@amurshina.ru</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>ХАРТУНГ, ООО</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>http://www.hartung.ru</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>+7 (495) 664-2384</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>kolesa@hartung.ru</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>ЧАЙКОВСКИЙ ЗАВОД РТД, АО</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>http://www.zavodrtd.ru</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>+7 (34241) 6-17-03</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>pmf@zavodrtd.ru</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>Оборудование для переработки резины; Сырье и материалы для производства шин и резинотехнических изделий; Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>ЧЕЛЯБИНСКИЙ ХИМИЧЕСКИЙ ЗАВОД ОКСИД, ООО</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>http://www.zincoxide.ru</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>+7 (499) 450-6263</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>info@zincoxide.ru</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары; Сырье и материалы для производства шин и резинотехнических изделий; Химикаты и добавки; Производство химической и нефтехимической продукции; Конвейерные ленты; Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>ЧРЗ, ООО</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>http://www.chrz.ru</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>+7 (496) 727-0501</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>1940@mail.ru</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары; Сырье и материалы для производства шин и резинотехнических изделий; Металлокорд; Восстановленные шины; Резка резиновых и каучуковых изделий; Синтетический каучук</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>ШАРКОВ АЛЕКСЕЙ АНАТОЛЬЕВИЧ, ИП</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>https://ipsharkov.ru</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>+7 (495) 999-8866</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>info@ipsharkov.ru</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>ШИННИК</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr"/>
+      <c r="C262" t="inlineStr"/>
+      <c r="D262" t="inlineStr"/>
+      <c r="E262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>ЭйчПиЮ ШИНЫ</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>https://hputire.ru</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>+7 (909) 947-5026</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>contact@hputire.ru</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>Шины, покрышки и сопутствующие товары; Восстановленные шины; Научно-технические разработки; Программное обеспечение; Оборудование для производства шин и резинотехнических изделий; Оборудование и материалы для шиновосстановления</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>ЭКОЛОГИЧЕСКАЯ АЛЬТЕРНАТИВА, CООО</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>https://recycle.by</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>+375 447 733238</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>info@recycle.by</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>Оборудование для переработки резины; Оборудование для переработки шин</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>ЭЛАД-ГЕРМЕС, ООО</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>http://элад-гермес.рф</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>+7 (499) 962-7499</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>elad-germes@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>Сырье и материалы для производства шин и резинотехнических изделий; Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>ЮДЖИЭНЛАБ ТЕСТ, ООО</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>http://www.ugnlab.su</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>+7 (985) 765-1675</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>1@ugnlab.su</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>Контрольно-испытательное оборудование; Оборудование для переработки резины; Сырье и материалы для производства шин и резинотехнических изделий; Научно-технические разработки; Программное обеспечение; Оборудование для производства шин и резинотехнических изделий</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>ЯРОСЛАВСКИЙ ЗАВОД РЕЗИНОВЫХ ТЕХНИЧЕСКИХ ИЗДЕЛИЙ, ОАО</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>http://www.yarti.ru</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>(4852) 58-43-01, 25-28-73</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>rubber@rti.yaroslavl.ru</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>Формовые и неформовые РТИ в широком ассортименте (уплотнители, амортизаторы, техпластины и др.)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
